--- a/LitReview/Sources.xlsx
+++ b/LitReview/Sources.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">State of the Art </t>
   </si>
@@ -28,6 +28,201 @@
   </si>
   <si>
     <t>Full Title</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Next up</t>
+  </si>
+  <si>
+    <t>Dynamic ipact factors for bridges</t>
+  </si>
+  <si>
+    <t>McLean and Marsh</t>
+  </si>
+  <si>
+    <t>Good review in Chapter 3 of studies done on dynamic amplification</t>
+  </si>
+  <si>
+    <t>Determination of impact factor for steel railway bridges considering simultaneous effects of vehicle speed and axle distance to span length ratio</t>
+  </si>
+  <si>
+    <t>Hamidi</t>
+  </si>
+  <si>
+    <t>Good references for "ignoring" road surface, and why comlicated vehicle models are probably not necessary.</t>
+  </si>
+  <si>
+    <t>cited by</t>
+  </si>
+  <si>
+    <t>Vehicle-bridge dynamic interaction using finite element modelling</t>
+  </si>
+  <si>
+    <t>Overview of VBI methods (iterative or coupled) nothing really new</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Deng</t>
+  </si>
+  <si>
+    <t>Dynamic response of a highway bridge subjected to moving vehicles</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compared test data with FE simulation. Found that poor road conditions with high speeds can cause impact factors as large as 2. </t>
+  </si>
+  <si>
+    <t>Evaluation of dynamic vehicle axle loads on bridges with different surface conditions</t>
+  </si>
+  <si>
+    <t>Road surface roughness has a significant impact on DAF</t>
+  </si>
+  <si>
+    <t>Ding</t>
+  </si>
+  <si>
+    <t>Free vibrations of simply-supported beam bridges under moving loads: Maximum resonance, cancellation and resonant vertical acceleration</t>
+  </si>
+  <si>
+    <t>Museros</t>
+  </si>
+  <si>
+    <t>Looks at train of loads causing resonance on a simply supported beam. Theoretical. Presents spacing values to maximize and minimize resonance. Constant load, vehicle dynamics not included.</t>
+  </si>
+  <si>
+    <t>Impact formulas for vehicles moving over simple and continuous beams</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>Simple beam model used to develop impact factor formulas based on vehicle speed and bridge fundamental frequency. Poor research. Did not adequately represent vehicle dynamics with excitation of its vertical modes.</t>
+  </si>
+  <si>
+    <t>Impact studies of multigirder concrete bridges</t>
+  </si>
+  <si>
+    <t>Huang</t>
+  </si>
+  <si>
+    <t>Starts the vehicles at the approaches to provide initial conditions. Start 140ft from bridge. Parametric study with "regular" bridge models</t>
+  </si>
+  <si>
+    <t>Influence of heavy trucks on highway bridges</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Simulates a variety of traffic (based on WIM data) on typical bridges to assess fatigue damage caused by traffic, especialy heavy vehicles. Trucks are started 5 vehicle lenghts away to provide initial conditions, however, each truck is simulated seperately.</t>
+  </si>
+  <si>
+    <t>Response of prestressed concrete I-girder bridges to live load</t>
+  </si>
+  <si>
+    <t>Schwarz</t>
+  </si>
+  <si>
+    <t>Field test shows low levels of dynamic amplification. Nothing new or interesting</t>
+  </si>
+  <si>
+    <t>Decent discussion of user  perception. Used Reiher-Meister curve for vibration criteria. Provides a framework (a lame one) for assessing a structure's vibration serviceability.</t>
+  </si>
+  <si>
+    <t>Analytical and experimental approach for assessing vibration serviceability of highway bridges due to heavy vehicle traffic</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Analysis and diagnostic testing of a bridge</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Tested bridge with cracks, concluded they were from deck pour sequence</t>
+  </si>
+  <si>
+    <t>Identification and evaluation of pavement-bridge interface ride quality improvement and corrective strategies</t>
+  </si>
+  <si>
+    <t>Phares</t>
+  </si>
+  <si>
+    <t>bump at the end</t>
+  </si>
+  <si>
+    <t>Approach slab design to minimize bump at interface. No mention of dynamic effects.</t>
+  </si>
+  <si>
+    <t>Correlation between Bridge Vibration and Bridge Deck Cracking: A qualitative Study</t>
+  </si>
+  <si>
+    <t>Alampalli</t>
+  </si>
+  <si>
+    <t>Qualitative metrics of cracking and vibration used, based on inspectors assessment. Type of cracking considered. Correlation between vibration and cracking found.</t>
+  </si>
+  <si>
+    <t>Experimental evaluation of dynamic effects for a selected highway bridge</t>
+  </si>
+  <si>
+    <t>Kwasniewski</t>
+  </si>
+  <si>
+    <t>Experiment (with FE model validation) of dynamic amplification. Higher than code specified factors were found. "Bump" included in test</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bump, field test, IM, </t>
+  </si>
+  <si>
+    <t>Influence of pre-existing vibrations on the dynamic response of medium span bridges</t>
+  </si>
+  <si>
+    <t>Rattigan</t>
+  </si>
+  <si>
+    <t>Initial conditions of the bridge vibration (e.g. vehicle preceding loading vehicle) can have an impact on DAF and magnitude of vibration. Critical velocity, gap combinations probably exist that cause maximum effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initial conditions, truck train, </t>
+  </si>
+  <si>
+    <t>Vibrational behavior of continuous span highway bridge—influencing variables</t>
+  </si>
+  <si>
+    <t>Kou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compares different parameters that influence bridge vibration and dynamic amplification, including: vehicle initial conditions, surface roughness, vehicle speed and weight, etc. Vehicle initial conditions, bump, and weight all greatly affected displacement. </t>
+  </si>
+  <si>
+    <t>bump, vehicle, initial conditions, FEM</t>
+  </si>
+  <si>
+    <t>Came up with a "simple" way to calculate the vibration/defection of a bridge with moving loads and several vertical supports (via math)</t>
+  </si>
+  <si>
+    <t>DYNAMIC ANALYSIS OF A BRIDGE SUPPORTED WITH MANY VERTICAL SUPPORTS UNDER MOVING LOAD.</t>
+  </si>
+  <si>
+    <t>Reis</t>
   </si>
 </sst>
 </file>
@@ -366,32 +561,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>2015</v>
+      </c>
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>2011</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>2006</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>2009</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19">
+        <v>1997</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
